--- a/src/output_files/Detailed.xlsx
+++ b/src/output_files/Detailed.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,29 +472,29 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Бозшаколь</t>
+          <t>Ежевая</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Ахангаран</t>
+          <t>Бозшаколь</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Тюлькубас</t>
+          <t>Бозшаколь</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>КОНЦЕНТР МЕД</t>
+          <t xml:space="preserve">            </t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G2" t="n">
-        <v>398</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -503,25 +503,29 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Бозшаколь</t>
+          <t>Ежевая</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Ахангаран</t>
+          <t>Бозшаколь</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Тюлькубас</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr"/>
+          <t>Курорт-боровое</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            </t>
+        </is>
+      </c>
       <c r="F3" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="G3" t="n">
-        <v>398</v>
+        <v>460</v>
       </c>
     </row>
     <row r="4">
@@ -530,29 +534,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Бозшаколь</t>
+          <t>Ежевая</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Ахангаран</t>
+          <t>Бозшаколь</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Ахангаран</t>
+          <t>Ерейментау</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>КОНЦЕНТР МЕД</t>
+          <t xml:space="preserve">            </t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5">
@@ -561,25 +565,153 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Бозшаколь</t>
+          <t>Ежевая</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Ахангаран</t>
+          <t>Бозшаколь</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Ахангаран</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr"/>
+          <t>Петропавловск</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            </t>
+        </is>
+      </c>
       <c r="F5" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>725</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Ежевая</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Бозшаколь</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Шадринск</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            </t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>6</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Ежевая</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Бозшаколь</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Екатеринбург-Сортировочный</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            </t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Ежевая</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Бозшаколь</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Шурала</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            </t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>3</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Ежевая</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Бозшаколь</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Каменск-уральский</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            </t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>2</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1253</v>
       </c>
     </row>
   </sheetData>

--- a/src/output_files/Detailed.xlsx
+++ b/src/output_files/Detailed.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,26 +472,26 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ежевая</t>
+          <t>Актогай</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Бозшаколь</t>
+          <t>Балхаш I</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Бозшаколь</t>
+          <t>Балхаш I</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t xml:space="preserve">            </t>
+          <t>КОНЦЕНТР МЕД</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -503,17 +503,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ежевая</t>
+          <t>Актогай</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Бозшаколь</t>
+          <t>Балхаш I</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Курорт-боровое</t>
+          <t>Балхаш I</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -525,7 +525,7 @@
         <v>3</v>
       </c>
       <c r="G3" t="n">
-        <v>460</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -534,17 +534,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ежевая</t>
+          <t>Балхаш I</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Бозшаколь</t>
+          <t>Балхаш I</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Ерейментау</t>
+          <t>Балхаш I</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -553,10 +553,10 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="G4" t="n">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -565,17 +565,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ежевая</t>
+          <t>Балхаш I</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Бозшаколь</t>
+          <t>Актогай</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Петропавловск</t>
+          <t>Балхаш I</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -584,10 +584,10 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G5" t="n">
-        <v>725</v>
+        <v>392</v>
       </c>
     </row>
     <row r="6">
@@ -596,17 +596,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ежевая</t>
+          <t>Балхаш I</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Бозшаколь</t>
+          <t>Актогай</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Шадринск</t>
+          <t>Актогай</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -615,103 +615,10 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="G6" t="n">
-        <v>1138</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Ежевая</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Бозшаколь</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Екатеринбург-Сортировочный</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">            </t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" t="n">
-        <v>1363</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Ежевая</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Бозшаколь</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Шурала</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">            </t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>3</v>
-      </c>
-      <c r="G8" t="n">
-        <v>1443</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Ежевая</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Бозшаколь</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Каменск-уральский</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">            </t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>2</v>
-      </c>
-      <c r="G9" t="n">
-        <v>1253</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/src/output_files/Detailed.xlsx
+++ b/src/output_files/Detailed.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,26 +472,26 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Актогай</t>
+          <t>Ежевая</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Балхаш I</t>
+          <t>Бозшаколь</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Балхаш I</t>
+          <t>Бозшаколь</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>КОНЦЕНТР МЕД</t>
+          <t xml:space="preserve">            </t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -503,17 +503,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Актогай</t>
+          <t>Ежевая</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Балхаш I</t>
+          <t>Бозшаколь</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Балхаш I</t>
+          <t>Курорт-боровое</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -525,7 +525,7 @@
         <v>3</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>460</v>
       </c>
     </row>
     <row r="4">
@@ -534,17 +534,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Балхаш I</t>
+          <t>Ежевая</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Балхаш I</t>
+          <t>Бозшаколь</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Балхаш I</t>
+          <t>Ерейментау</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -553,10 +553,10 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5">
@@ -565,17 +565,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Балхаш I</t>
+          <t>Ежевая</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Актогай</t>
+          <t>Бозшаколь</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Балхаш I</t>
+          <t>Петропавловск</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -584,10 +584,10 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G5" t="n">
-        <v>392</v>
+        <v>725</v>
       </c>
     </row>
     <row r="6">
@@ -596,17 +596,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Балхаш I</t>
+          <t>Ежевая</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Актогай</t>
+          <t>Бозшаколь</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Актогай</t>
+          <t>Шадринск</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -615,10 +615,103 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Ежевая</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Бозшаколь</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Екатеринбург-Сортировочный</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            </t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Ежевая</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Бозшаколь</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Шурала</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            </t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>3</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Ежевая</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Бозшаколь</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Каменск-уральский</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            </t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>2</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1253</v>
       </c>
     </row>
   </sheetData>

--- a/src/output_files/Detailed.xlsx
+++ b/src/output_files/Detailed.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,29 +472,29 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ежевая</t>
+          <t>Чимкурган</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Бозшаколь</t>
+          <t>Актогай</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Бозшаколь</t>
+          <t>Джизак</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t xml:space="preserve">            </t>
+          <t xml:space="preserve">ЛИТИН       </t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="3">
@@ -503,29 +503,29 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ежевая</t>
+          <t>Чимкурган</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Бозшаколь</t>
+          <t>Усть-Таловка</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Курорт-боровое</t>
+          <t>Джизак</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t xml:space="preserve">            </t>
+          <t xml:space="preserve">ЛИТИН       </t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G3" t="n">
-        <v>460</v>
+        <v>2418</v>
       </c>
     </row>
     <row r="4">
@@ -534,184 +534,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ежевая</t>
+          <t>Бинокор (рзд)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Бозшаколь</t>
+          <t>Усть-Таловка</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Ерейментау</t>
+          <t>Бинокор (рзд)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t xml:space="preserve">            </t>
+          <t xml:space="preserve">ЛИТИН       </t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Ежевая</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Бозшаколь</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Петропавловск</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">            </t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>6</v>
-      </c>
-      <c r="G5" t="n">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Ежевая</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Бозшаколь</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Шадринск</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">            </t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>6</v>
-      </c>
-      <c r="G6" t="n">
-        <v>1138</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Ежевая</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Бозшаколь</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Екатеринбург-Сортировочный</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">            </t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" t="n">
-        <v>1363</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Ежевая</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Бозшаколь</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Шурала</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">            </t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>3</v>
-      </c>
-      <c r="G8" t="n">
-        <v>1443</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Ежевая</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Бозшаколь</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Каменск-уральский</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">            </t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>2</v>
-      </c>
-      <c r="G9" t="n">
-        <v>1253</v>
+        <v>2697</v>
       </c>
     </row>
   </sheetData>

--- a/src/output_files/Detailed.xlsx
+++ b/src/output_files/Detailed.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,29 +472,29 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Чимкурган</t>
+          <t>Ежевая</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Актогай</t>
+          <t>Бозшаколь</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Джизак</t>
+          <t>Бозшаколь</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t xml:space="preserve">ЛИТИН       </t>
+          <t xml:space="preserve">            </t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="G2" t="n">
-        <v>1785</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -503,60 +503,29 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Чимкурган</t>
+          <t>Ежевая</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Усть-Таловка</t>
+          <t>Бозшаколь</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Джизак</t>
+          <t>Петропавловск</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t xml:space="preserve">ЛИТИН       </t>
+          <t xml:space="preserve">            </t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>2418</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Бинокор (рзд)</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Усть-Таловка</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Бинокор (рзд)</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ЛИТИН       </t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" t="n">
-        <v>2697</v>
+        <v>725</v>
       </c>
     </row>
   </sheetData>

--- a/src/output_files/Detailed.xlsx
+++ b/src/output_files/Detailed.xlsx
@@ -1,37 +1,69 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+  <si>
+    <t>FromStationName</t>
+  </si>
+  <si>
+    <t>ToStationName</t>
+  </si>
+  <si>
+    <t>LastStationName</t>
+  </si>
+  <si>
+    <t>CargoEtsngName</t>
+  </si>
+  <si>
+    <t>count</t>
+  </si>
+  <si>
+    <t>mean</t>
+  </si>
+  <si>
+    <t>Ежевая</t>
+  </si>
+  <si>
+    <t>Бозшаколь</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,10 +78,18 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -57,83 +97,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -421,114 +394,54 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Станция отправления</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Станция назначения</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Станция текущей дислокации</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Груз</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>count</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>mean</t>
-        </is>
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Ежевая</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Бозшаколь</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Бозшаколь</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">            </t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>21</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
         <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Ежевая</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Бозшаколь</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Петропавловск</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">            </t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" t="n">
-        <v>725</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/output_files/Detailed.xlsx
+++ b/src/output_files/Detailed.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="63">
   <si>
     <t>FromStationName</t>
   </si>
@@ -34,10 +34,175 @@
     <t>mean</t>
   </si>
   <si>
-    <t>Ежевая</t>
+    <t>Достык (эксп.)</t>
+  </si>
+  <si>
+    <t>Балхаш I</t>
+  </si>
+  <si>
+    <t>Алматы 1</t>
+  </si>
+  <si>
+    <t>Сайрам</t>
+  </si>
+  <si>
+    <t>Чукурсай</t>
+  </si>
+  <si>
+    <t>Актогай</t>
+  </si>
+  <si>
+    <t>Бурул</t>
+  </si>
+  <si>
+    <t>Аламедин</t>
+  </si>
+  <si>
+    <t>Кант</t>
+  </si>
+  <si>
+    <t>Кучлук</t>
+  </si>
+  <si>
+    <t>Алматы 2</t>
+  </si>
+  <si>
+    <t>Хамза</t>
+  </si>
+  <si>
+    <t>Достык</t>
+  </si>
+  <si>
+    <t>Павлодар-порт</t>
   </si>
   <si>
     <t>Бозшаколь</t>
+  </si>
+  <si>
+    <t>Шымкент</t>
+  </si>
+  <si>
+    <t>Туркестан</t>
+  </si>
+  <si>
+    <t>Бинокор (рзд)</t>
+  </si>
+  <si>
+    <t>Чимкурган</t>
+  </si>
+  <si>
+    <t>Усть-Таловка</t>
+  </si>
+  <si>
+    <t>Оскемен-1</t>
+  </si>
+  <si>
+    <t>Тараз</t>
+  </si>
+  <si>
+    <t>Неверовская</t>
+  </si>
+  <si>
+    <t>Атбасар</t>
+  </si>
+  <si>
+    <t>Аягоз</t>
+  </si>
+  <si>
+    <t>Жанааул</t>
+  </si>
+  <si>
+    <t>Екибастуз II</t>
+  </si>
+  <si>
+    <t>Ахангаран</t>
+  </si>
+  <si>
+    <t>Аксу I</t>
+  </si>
+  <si>
+    <t>Екибастуз I</t>
+  </si>
+  <si>
+    <t>Семей</t>
+  </si>
+  <si>
+    <t>Тагынкара</t>
+  </si>
+  <si>
+    <t>Карабас</t>
+  </si>
+  <si>
+    <t>Ерейментау</t>
+  </si>
+  <si>
+    <t>Мойынты</t>
+  </si>
+  <si>
+    <t>Мын-Арал</t>
+  </si>
+  <si>
+    <t>Саяк</t>
+  </si>
+  <si>
+    <t>Шу</t>
+  </si>
+  <si>
+    <t>Шар</t>
+  </si>
+  <si>
+    <t>Каракультас</t>
+  </si>
+  <si>
+    <t>Спутник</t>
+  </si>
+  <si>
+    <t>Тансык</t>
+  </si>
+  <si>
+    <t>Разъезд № 9</t>
+  </si>
+  <si>
+    <t>Ушбийк</t>
+  </si>
+  <si>
+    <t>Алтынколат (рзд)</t>
+  </si>
+  <si>
+    <t>Байсерке</t>
+  </si>
+  <si>
+    <t>Зарафшан</t>
+  </si>
+  <si>
+    <t>Тюлькубас</t>
+  </si>
+  <si>
+    <t>Джизак</t>
+  </si>
+  <si>
+    <t>Арыс I</t>
+  </si>
+  <si>
+    <t>Ремовская</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МЕДЬ        </t>
+  </si>
+  <si>
+    <t>КОНЦЕНТР МЕД</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТОПЛИВО ВЫШ </t>
+  </si>
+  <si>
+    <t>ИЗВЕСТЬ НЕГА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЛИТИН       </t>
+  </si>
+  <si>
+    <t>КОНЦЕНТР ЦИН</t>
   </si>
 </sst>
 </file>
@@ -395,7 +560,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -435,9 +600,2257 @@
         <v>7</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3">
+        <v>207</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4">
+        <v>5</v>
+      </c>
+      <c r="G4">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7">
+        <v>43</v>
+      </c>
+      <c r="G7">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8">
+        <v>35</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9">
+        <v>36</v>
+      </c>
+      <c r="G9">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10">
+        <v>5</v>
+      </c>
+      <c r="G10">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" t="s">
+        <v>57</v>
+      </c>
+      <c r="F12">
+        <v>9</v>
+      </c>
+      <c r="G12">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" t="s">
+        <v>57</v>
+      </c>
+      <c r="F13">
+        <v>29</v>
+      </c>
+      <c r="G13">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14">
+        <v>33</v>
+      </c>
+      <c r="G14">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15">
+        <v>84</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" t="s">
+        <v>39</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18">
+        <v>17</v>
+      </c>
+      <c r="G18">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>26</v>
+      </c>
+      <c r="F19">
+        <v>11</v>
+      </c>
+      <c r="G19">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20">
+        <v>20</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" t="s">
+        <v>37</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" t="s">
+        <v>28</v>
+      </c>
+      <c r="F24">
+        <v>43</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" t="s">
+        <v>40</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" t="s">
+        <v>7</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" t="s">
+        <v>41</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" t="s">
+        <v>25</v>
+      </c>
+      <c r="D29" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" t="s">
+        <v>7</v>
+      </c>
+      <c r="F30">
+        <v>4</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" t="s">
+        <v>7</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" t="s">
+        <v>7</v>
+      </c>
+      <c r="F32">
+        <v>23</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33" t="s">
+        <v>58</v>
+      </c>
+      <c r="F33">
+        <v>18</v>
+      </c>
+      <c r="G33">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34" t="s">
+        <v>42</v>
+      </c>
+      <c r="E34" t="s">
+        <v>58</v>
+      </c>
+      <c r="F34">
+        <v>21</v>
+      </c>
+      <c r="G34">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" t="s">
+        <v>6</v>
+      </c>
+      <c r="E35" t="s">
+        <v>58</v>
+      </c>
+      <c r="F35">
+        <v>21</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" t="s">
+        <v>30</v>
+      </c>
+      <c r="D36" t="s">
+        <v>30</v>
+      </c>
+      <c r="F36">
+        <v>3</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37" t="s">
+        <v>30</v>
+      </c>
+      <c r="D37" t="s">
+        <v>11</v>
+      </c>
+      <c r="F37">
+        <v>2</v>
+      </c>
+      <c r="G37">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38" t="s">
+        <v>19</v>
+      </c>
+      <c r="D38" t="s">
+        <v>19</v>
+      </c>
+      <c r="F38">
+        <v>9</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39" t="s">
+        <v>7</v>
+      </c>
+      <c r="D39" t="s">
+        <v>43</v>
+      </c>
+      <c r="F39">
+        <v>2</v>
+      </c>
+      <c r="G39">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>13</v>
+      </c>
+      <c r="C40" t="s">
+        <v>7</v>
+      </c>
+      <c r="D40" t="s">
+        <v>7</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>14</v>
+      </c>
+      <c r="C41" t="s">
+        <v>7</v>
+      </c>
+      <c r="D41" t="s">
+        <v>7</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>15</v>
+      </c>
+      <c r="C42" t="s">
+        <v>7</v>
+      </c>
+      <c r="D42" t="s">
+        <v>7</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>16</v>
+      </c>
+      <c r="C43" t="s">
+        <v>7</v>
+      </c>
+      <c r="D43" t="s">
+        <v>7</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>16</v>
+      </c>
+      <c r="C44" t="s">
+        <v>25</v>
+      </c>
+      <c r="D44" t="s">
+        <v>8</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>17</v>
+      </c>
+      <c r="C45" t="s">
+        <v>7</v>
+      </c>
+      <c r="D45" t="s">
+        <v>7</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>18</v>
+      </c>
+      <c r="C46" t="s">
+        <v>7</v>
+      </c>
+      <c r="D46" t="s">
+        <v>7</v>
+      </c>
+      <c r="F46">
+        <v>4</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>18</v>
+      </c>
+      <c r="C47" t="s">
+        <v>11</v>
+      </c>
+      <c r="D47" t="s">
+        <v>11</v>
+      </c>
+      <c r="F47">
+        <v>4</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>18</v>
+      </c>
+      <c r="C48" t="s">
+        <v>11</v>
+      </c>
+      <c r="D48" t="s">
+        <v>18</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>18</v>
+      </c>
+      <c r="C49" t="s">
+        <v>20</v>
+      </c>
+      <c r="D49" t="s">
+        <v>18</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>18</v>
+      </c>
+      <c r="C50" t="s">
+        <v>20</v>
+      </c>
+      <c r="D50" t="s">
+        <v>20</v>
+      </c>
+      <c r="F50">
+        <v>6</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>18</v>
+      </c>
+      <c r="C51" t="s">
+        <v>20</v>
+      </c>
+      <c r="D51" t="s">
+        <v>36</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>19</v>
+      </c>
+      <c r="C52" t="s">
+        <v>11</v>
+      </c>
+      <c r="D52" t="s">
+        <v>34</v>
+      </c>
+      <c r="E52" t="s">
+        <v>59</v>
+      </c>
+      <c r="F52">
+        <v>5</v>
+      </c>
+      <c r="G52">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>19</v>
+      </c>
+      <c r="C53" t="s">
+        <v>11</v>
+      </c>
+      <c r="D53" t="s">
+        <v>44</v>
+      </c>
+      <c r="E53" t="s">
+        <v>59</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="G53">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>20</v>
+      </c>
+      <c r="C54" t="s">
+        <v>7</v>
+      </c>
+      <c r="D54" t="s">
+        <v>7</v>
+      </c>
+      <c r="F54">
+        <v>40</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>20</v>
+      </c>
+      <c r="C55" t="s">
+        <v>7</v>
+      </c>
+      <c r="D55" t="s">
+        <v>7</v>
+      </c>
+      <c r="E55" t="s">
+        <v>58</v>
+      </c>
+      <c r="F55">
+        <v>2</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>20</v>
+      </c>
+      <c r="C56" t="s">
+        <v>7</v>
+      </c>
+      <c r="D56" t="s">
+        <v>20</v>
+      </c>
+      <c r="E56" t="s">
+        <v>58</v>
+      </c>
+      <c r="F56">
+        <v>30</v>
+      </c>
+      <c r="G56">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>20</v>
+      </c>
+      <c r="C57" t="s">
+        <v>6</v>
+      </c>
+      <c r="D57" t="s">
+        <v>30</v>
+      </c>
+      <c r="E57" t="s">
+        <v>58</v>
+      </c>
+      <c r="F57">
+        <v>43</v>
+      </c>
+      <c r="G57">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>20</v>
+      </c>
+      <c r="C58" t="s">
+        <v>6</v>
+      </c>
+      <c r="D58" t="s">
+        <v>45</v>
+      </c>
+      <c r="E58" t="s">
+        <v>58</v>
+      </c>
+      <c r="F58">
+        <v>43</v>
+      </c>
+      <c r="G58">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>20</v>
+      </c>
+      <c r="C59" t="s">
+        <v>6</v>
+      </c>
+      <c r="D59" t="s">
+        <v>20</v>
+      </c>
+      <c r="E59" t="s">
+        <v>58</v>
+      </c>
+      <c r="F59">
+        <v>43</v>
+      </c>
+      <c r="G59">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
+        <v>20</v>
+      </c>
+      <c r="C60" t="s">
+        <v>6</v>
+      </c>
+      <c r="D60" t="s">
+        <v>35</v>
+      </c>
+      <c r="E60" t="s">
+        <v>58</v>
+      </c>
+      <c r="F60">
+        <v>43</v>
+      </c>
+      <c r="G60">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>20</v>
+      </c>
+      <c r="C61" t="s">
+        <v>6</v>
+      </c>
+      <c r="D61" t="s">
+        <v>46</v>
+      </c>
+      <c r="E61" t="s">
+        <v>58</v>
+      </c>
+      <c r="F61">
+        <v>43</v>
+      </c>
+      <c r="G61">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>20</v>
+      </c>
+      <c r="C62" t="s">
+        <v>6</v>
+      </c>
+      <c r="D62" t="s">
+        <v>47</v>
+      </c>
+      <c r="E62" t="s">
+        <v>58</v>
+      </c>
+      <c r="F62">
+        <v>43</v>
+      </c>
+      <c r="G62">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>20</v>
+      </c>
+      <c r="C63" t="s">
+        <v>6</v>
+      </c>
+      <c r="D63" t="s">
+        <v>48</v>
+      </c>
+      <c r="E63" t="s">
+        <v>58</v>
+      </c>
+      <c r="F63">
+        <v>43</v>
+      </c>
+      <c r="G63">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
+        <v>20</v>
+      </c>
+      <c r="C64" t="s">
+        <v>6</v>
+      </c>
+      <c r="D64" t="s">
+        <v>49</v>
+      </c>
+      <c r="E64" t="s">
+        <v>58</v>
+      </c>
+      <c r="F64">
+        <v>42</v>
+      </c>
+      <c r="G64">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
+        <v>20</v>
+      </c>
+      <c r="C65" t="s">
+        <v>6</v>
+      </c>
+      <c r="D65" t="s">
+        <v>50</v>
+      </c>
+      <c r="E65" t="s">
+        <v>58</v>
+      </c>
+      <c r="F65">
+        <v>1</v>
+      </c>
+      <c r="G65">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
+        <v>20</v>
+      </c>
+      <c r="C66" t="s">
+        <v>19</v>
+      </c>
+      <c r="D66" t="s">
+        <v>19</v>
+      </c>
+      <c r="F66">
+        <v>1</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67" t="s">
+        <v>20</v>
+      </c>
+      <c r="C67" t="s">
+        <v>18</v>
+      </c>
+      <c r="D67" t="s">
+        <v>30</v>
+      </c>
+      <c r="F67">
+        <v>1</v>
+      </c>
+      <c r="G67">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68" t="s">
+        <v>20</v>
+      </c>
+      <c r="C68" t="s">
+        <v>18</v>
+      </c>
+      <c r="D68" t="s">
+        <v>45</v>
+      </c>
+      <c r="F68">
+        <v>1</v>
+      </c>
+      <c r="G68">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69" t="s">
+        <v>20</v>
+      </c>
+      <c r="C69" t="s">
+        <v>18</v>
+      </c>
+      <c r="D69" t="s">
+        <v>20</v>
+      </c>
+      <c r="F69">
+        <v>1</v>
+      </c>
+      <c r="G69">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="B70" t="s">
+        <v>20</v>
+      </c>
+      <c r="C70" t="s">
+        <v>18</v>
+      </c>
+      <c r="D70" t="s">
+        <v>35</v>
+      </c>
+      <c r="F70">
+        <v>1</v>
+      </c>
+      <c r="G70">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="B71" t="s">
+        <v>20</v>
+      </c>
+      <c r="C71" t="s">
+        <v>18</v>
+      </c>
+      <c r="D71" t="s">
+        <v>46</v>
+      </c>
+      <c r="F71">
+        <v>1</v>
+      </c>
+      <c r="G71">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72" t="s">
+        <v>20</v>
+      </c>
+      <c r="C72" t="s">
+        <v>18</v>
+      </c>
+      <c r="D72" t="s">
+        <v>47</v>
+      </c>
+      <c r="F72">
+        <v>1</v>
+      </c>
+      <c r="G72">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73" t="s">
+        <v>20</v>
+      </c>
+      <c r="C73" t="s">
+        <v>18</v>
+      </c>
+      <c r="D73" t="s">
+        <v>48</v>
+      </c>
+      <c r="F73">
+        <v>1</v>
+      </c>
+      <c r="G73">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="B74" t="s">
+        <v>20</v>
+      </c>
+      <c r="C74" t="s">
+        <v>18</v>
+      </c>
+      <c r="D74" t="s">
+        <v>49</v>
+      </c>
+      <c r="F74">
+        <v>1</v>
+      </c>
+      <c r="G74">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75" t="s">
+        <v>20</v>
+      </c>
+      <c r="C75" t="s">
+        <v>29</v>
+      </c>
+      <c r="D75" t="s">
+        <v>20</v>
+      </c>
+      <c r="F75">
+        <v>1</v>
+      </c>
+      <c r="G75">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="B76" t="s">
+        <v>20</v>
+      </c>
+      <c r="C76" t="s">
+        <v>29</v>
+      </c>
+      <c r="D76" t="s">
+        <v>29</v>
+      </c>
+      <c r="F76">
+        <v>1</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="B77" t="s">
+        <v>20</v>
+      </c>
+      <c r="C77" t="s">
+        <v>32</v>
+      </c>
+      <c r="D77" t="s">
+        <v>32</v>
+      </c>
+      <c r="F77">
+        <v>1</v>
+      </c>
+      <c r="G77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="B78" t="s">
+        <v>21</v>
+      </c>
+      <c r="C78" t="s">
+        <v>7</v>
+      </c>
+      <c r="D78" t="s">
+        <v>7</v>
+      </c>
+      <c r="F78">
+        <v>1</v>
+      </c>
+      <c r="G78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="B79" t="s">
+        <v>22</v>
+      </c>
+      <c r="C79" t="s">
+        <v>7</v>
+      </c>
+      <c r="D79" t="s">
+        <v>7</v>
+      </c>
+      <c r="F79">
+        <v>1</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="B80" t="s">
+        <v>23</v>
+      </c>
+      <c r="C80" t="s">
+        <v>25</v>
+      </c>
+      <c r="D80" t="s">
+        <v>30</v>
+      </c>
+      <c r="E80" t="s">
+        <v>60</v>
+      </c>
+      <c r="F80">
+        <v>2</v>
+      </c>
+      <c r="G80">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="B81" t="s">
+        <v>23</v>
+      </c>
+      <c r="C81" t="s">
+        <v>25</v>
+      </c>
+      <c r="D81" t="s">
+        <v>26</v>
+      </c>
+      <c r="E81" t="s">
+        <v>60</v>
+      </c>
+      <c r="F81">
+        <v>4</v>
+      </c>
+      <c r="G81">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="B82" t="s">
+        <v>23</v>
+      </c>
+      <c r="C82" t="s">
+        <v>25</v>
+      </c>
+      <c r="D82" t="s">
+        <v>25</v>
+      </c>
+      <c r="F82">
+        <v>2</v>
+      </c>
+      <c r="G82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+      <c r="B83" t="s">
+        <v>23</v>
+      </c>
+      <c r="C83" t="s">
+        <v>25</v>
+      </c>
+      <c r="D83" t="s">
+        <v>51</v>
+      </c>
+      <c r="E83" t="s">
+        <v>60</v>
+      </c>
+      <c r="F83">
+        <v>2</v>
+      </c>
+      <c r="G83">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84" s="1">
+        <v>82</v>
+      </c>
+      <c r="B84" t="s">
+        <v>23</v>
+      </c>
+      <c r="C84" t="s">
+        <v>25</v>
+      </c>
+      <c r="D84" t="s">
+        <v>52</v>
+      </c>
+      <c r="E84" t="s">
+        <v>61</v>
+      </c>
+      <c r="F84">
+        <v>2</v>
+      </c>
+      <c r="G84">
+        <v>2524</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85" s="1">
+        <v>83</v>
+      </c>
+      <c r="B85" t="s">
+        <v>23</v>
+      </c>
+      <c r="C85" t="s">
+        <v>25</v>
+      </c>
+      <c r="D85" t="s">
+        <v>53</v>
+      </c>
+      <c r="E85" t="s">
+        <v>60</v>
+      </c>
+      <c r="F85">
+        <v>2</v>
+      </c>
+      <c r="G85">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86" s="1">
+        <v>84</v>
+      </c>
+      <c r="B86" t="s">
+        <v>24</v>
+      </c>
+      <c r="C86" t="s">
+        <v>25</v>
+      </c>
+      <c r="D86" t="s">
+        <v>43</v>
+      </c>
+      <c r="E86" t="s">
+        <v>60</v>
+      </c>
+      <c r="F86">
+        <v>2</v>
+      </c>
+      <c r="G86">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87" s="1">
+        <v>85</v>
+      </c>
+      <c r="B87" t="s">
+        <v>24</v>
+      </c>
+      <c r="C87" t="s">
+        <v>25</v>
+      </c>
+      <c r="D87" t="s">
+        <v>54</v>
+      </c>
+      <c r="E87" t="s">
+        <v>61</v>
+      </c>
+      <c r="F87">
+        <v>4</v>
+      </c>
+      <c r="G87">
+        <v>2418</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88" s="1">
+        <v>86</v>
+      </c>
+      <c r="B88" t="s">
+        <v>24</v>
+      </c>
+      <c r="C88" t="s">
+        <v>25</v>
+      </c>
+      <c r="D88" t="s">
+        <v>25</v>
+      </c>
+      <c r="F88">
+        <v>2</v>
+      </c>
+      <c r="G88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89" s="1">
+        <v>87</v>
+      </c>
+      <c r="B89" t="s">
+        <v>24</v>
+      </c>
+      <c r="C89" t="s">
+        <v>28</v>
+      </c>
+      <c r="D89" t="s">
+        <v>36</v>
+      </c>
+      <c r="E89" t="s">
+        <v>60</v>
+      </c>
+      <c r="F89">
+        <v>2</v>
+      </c>
+      <c r="G89">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90" s="1">
+        <v>88</v>
+      </c>
+      <c r="B90" t="s">
+        <v>25</v>
+      </c>
+      <c r="C90" t="s">
+        <v>7</v>
+      </c>
+      <c r="D90" t="s">
+        <v>7</v>
+      </c>
+      <c r="F90">
+        <v>5</v>
+      </c>
+      <c r="G90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="A91" s="1">
+        <v>89</v>
+      </c>
+      <c r="B91" t="s">
+        <v>25</v>
+      </c>
+      <c r="C91" t="s">
+        <v>7</v>
+      </c>
+      <c r="D91" t="s">
+        <v>11</v>
+      </c>
+      <c r="E91" t="s">
+        <v>58</v>
+      </c>
+      <c r="F91">
+        <v>8</v>
+      </c>
+      <c r="G91">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="A92" s="1">
+        <v>90</v>
+      </c>
+      <c r="B92" t="s">
+        <v>25</v>
+      </c>
+      <c r="C92" t="s">
+        <v>7</v>
+      </c>
+      <c r="D92" t="s">
+        <v>26</v>
+      </c>
+      <c r="E92" t="s">
+        <v>58</v>
+      </c>
+      <c r="F92">
+        <v>5</v>
+      </c>
+      <c r="G92">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="A93" s="1">
+        <v>91</v>
+      </c>
+      <c r="B93" t="s">
+        <v>25</v>
+      </c>
+      <c r="C93" t="s">
+        <v>7</v>
+      </c>
+      <c r="D93" t="s">
+        <v>25</v>
+      </c>
+      <c r="E93" t="s">
+        <v>58</v>
+      </c>
+      <c r="F93">
+        <v>5</v>
+      </c>
+      <c r="G93">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="A94" s="1">
+        <v>92</v>
+      </c>
+      <c r="B94" t="s">
+        <v>25</v>
+      </c>
+      <c r="C94" t="s">
+        <v>6</v>
+      </c>
+      <c r="D94" t="s">
+        <v>11</v>
+      </c>
+      <c r="E94" t="s">
+        <v>62</v>
+      </c>
+      <c r="F94">
+        <v>48</v>
+      </c>
+      <c r="G94">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
+      <c r="A95" s="1">
+        <v>93</v>
+      </c>
+      <c r="B95" t="s">
+        <v>25</v>
+      </c>
+      <c r="C95" t="s">
+        <v>6</v>
+      </c>
+      <c r="D95" t="s">
+        <v>50</v>
+      </c>
+      <c r="E95" t="s">
+        <v>62</v>
+      </c>
+      <c r="F95">
+        <v>43</v>
+      </c>
+      <c r="G95">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="A96" s="1">
+        <v>94</v>
+      </c>
+      <c r="B96" t="s">
+        <v>25</v>
+      </c>
+      <c r="C96" t="s">
+        <v>33</v>
+      </c>
+      <c r="D96" t="s">
+        <v>33</v>
+      </c>
+      <c r="F96">
+        <v>5</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="A97" s="1">
+        <v>95</v>
+      </c>
+      <c r="B97" t="s">
+        <v>25</v>
+      </c>
+      <c r="C97" t="s">
+        <v>33</v>
+      </c>
+      <c r="D97" t="s">
+        <v>33</v>
+      </c>
+      <c r="E97" t="s">
+        <v>62</v>
+      </c>
+      <c r="F97">
+        <v>30</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="A98" s="1">
+        <v>96</v>
+      </c>
+      <c r="B98" t="s">
+        <v>25</v>
+      </c>
+      <c r="C98" t="s">
+        <v>33</v>
+      </c>
+      <c r="D98" t="s">
+        <v>55</v>
+      </c>
+      <c r="E98" t="s">
+        <v>62</v>
+      </c>
+      <c r="F98">
+        <v>1</v>
+      </c>
+      <c r="G98">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="A99" s="1">
+        <v>97</v>
+      </c>
+      <c r="B99" t="s">
+        <v>25</v>
+      </c>
+      <c r="C99" t="s">
+        <v>28</v>
+      </c>
+      <c r="D99" t="s">
+        <v>28</v>
+      </c>
+      <c r="F99">
+        <v>13</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
+      <c r="A100" s="1">
+        <v>98</v>
+      </c>
+      <c r="B100" t="s">
+        <v>25</v>
+      </c>
+      <c r="C100" t="s">
+        <v>26</v>
+      </c>
+      <c r="D100" t="s">
+        <v>26</v>
+      </c>
+      <c r="F100">
+        <v>1</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="A101" s="1">
+        <v>99</v>
+      </c>
+      <c r="B101" t="s">
+        <v>26</v>
+      </c>
+      <c r="C101" t="s">
+        <v>25</v>
+      </c>
+      <c r="D101" t="s">
+        <v>26</v>
+      </c>
+      <c r="F101">
+        <v>2</v>
+      </c>
+      <c r="G101">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
+      <c r="A102" s="1">
+        <v>100</v>
+      </c>
+      <c r="B102" t="s">
+        <v>26</v>
+      </c>
+      <c r="C102" t="s">
+        <v>25</v>
+      </c>
+      <c r="D102" t="s">
+        <v>25</v>
+      </c>
+      <c r="F102">
+        <v>3</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
+      <c r="A103" s="1">
+        <v>101</v>
+      </c>
+      <c r="B103" t="s">
+        <v>27</v>
+      </c>
+      <c r="C103" t="s">
+        <v>11</v>
+      </c>
+      <c r="D103" t="s">
+        <v>11</v>
+      </c>
+      <c r="F103">
+        <v>4</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
+      <c r="A104" s="1">
+        <v>102</v>
+      </c>
+      <c r="B104" t="s">
+        <v>28</v>
+      </c>
+      <c r="C104" t="s">
+        <v>7</v>
+      </c>
+      <c r="D104" t="s">
+        <v>42</v>
+      </c>
+      <c r="E104" t="s">
+        <v>58</v>
+      </c>
+      <c r="F104">
+        <v>20</v>
+      </c>
+      <c r="G104">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
+      <c r="A105" s="1">
+        <v>103</v>
+      </c>
+      <c r="B105" t="s">
+        <v>28</v>
+      </c>
+      <c r="C105" t="s">
+        <v>7</v>
+      </c>
+      <c r="D105" t="s">
+        <v>56</v>
+      </c>
+      <c r="E105" t="s">
+        <v>58</v>
+      </c>
+      <c r="F105">
+        <v>5</v>
+      </c>
+      <c r="G105">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
+      <c r="A106" s="1">
+        <v>104</v>
+      </c>
+      <c r="B106" t="s">
+        <v>28</v>
+      </c>
+      <c r="C106" t="s">
+        <v>7</v>
+      </c>
+      <c r="D106" t="s">
+        <v>28</v>
+      </c>
+      <c r="E106" t="s">
+        <v>58</v>
+      </c>
+      <c r="F106">
+        <v>15</v>
+      </c>
+      <c r="G106">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
+      <c r="A107" s="1">
+        <v>105</v>
+      </c>
+      <c r="B107" t="s">
+        <v>29</v>
+      </c>
+      <c r="C107" t="s">
+        <v>20</v>
+      </c>
+      <c r="D107" t="s">
+        <v>20</v>
+      </c>
+      <c r="F107">
+        <v>4</v>
+      </c>
+      <c r="G107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
+      <c r="A108" s="1">
+        <v>106</v>
+      </c>
+      <c r="B108" t="s">
+        <v>29</v>
+      </c>
+      <c r="C108" t="s">
+        <v>20</v>
+      </c>
+      <c r="D108" t="s">
+        <v>39</v>
+      </c>
+      <c r="F108">
+        <v>1</v>
+      </c>
+      <c r="G108">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
+      <c r="A109" s="1">
+        <v>107</v>
+      </c>
+      <c r="B109" t="s">
+        <v>30</v>
+      </c>
+      <c r="C109" t="s">
+        <v>28</v>
+      </c>
+      <c r="D109" t="s">
+        <v>28</v>
+      </c>
+      <c r="F109">
+        <v>2</v>
+      </c>
+      <c r="G109">
         <v>0</v>
       </c>
     </row>
